--- a/src/api/data/原始设计制造商及项目早期介入.xlsx
+++ b/src/api/data/原始设计制造商及项目早期介入.xlsx
@@ -8,8 +8,7 @@
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId4"/>
     <sheet name="繁体" sheetId="2" r:id="rId5"/>
-    <sheet name="英文 - 表格 1" sheetId="3" r:id="rId6"/>
-    <sheet name="英文 - 表格 1-1" sheetId="4" r:id="rId7"/>
+    <sheet name="英文" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -94,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,100 +146,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -257,36 +169,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -313,7 +195,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1674,117 +1555,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="256" width="10" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="16" customWidth="1"/>
-    <col min="2" max="2" width="6.35156" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.85156" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13" style="16" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="15.8516" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.35156" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.85156" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13" style="6" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">

--- a/src/api/data/原始设计制造商及项目早期介入.xlsx
+++ b/src/api/data/原始设计制造商及项目早期介入.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId4"/>
-    <sheet name="繁体" sheetId="2" r:id="rId5"/>
-    <sheet name="英文" sheetId="3" r:id="rId6"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="繁体" sheetId="2" r:id="rId2"/>
+    <sheet name="英文 - 表格 1" sheetId="3" r:id="rId3"/>
+    <sheet name="英文 - 表格 1-1" sheetId="4" r:id="rId4"/>
+    <sheet name="用于此页面" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>title</t>
   </si>
@@ -37,43 +46,890 @@
     <t>深圳和而泰智能控制</t>
   </si>
   <si>
-    <t>待填写</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>连接器</t>
+    <t>家電</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shenzhen H&amp;T Intelligent Control Co., Ltd. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Home Appliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.szhittech.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">和而泰科技成立于2000年，作为领先的电子控制系统供应商为全球的家用电器制造商提供前景设计、产品和解决方案 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖啡机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洗衣机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烘干机控制面板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>和而泰科技成立於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，作為領先的電子控制系統供應商為全球的家用電器製造商提供前景設計、產品和解決方案：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>連接器，咖啡機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洗衣機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烘乾機控制台</t>
+    </r>
+  </si>
+  <si>
+    <t>It was founded in 2000 as a leading supplier of electronic control systems to provide future design, products and solutions for home appliance manufacturers worldwide.</t>
+  </si>
+  <si>
+    <t>Connector, coffee maker / washer / dryer control panel</t>
+  </si>
+  <si>
+    <t>海能达通讯集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hytera.com</t>
+  </si>
+  <si>
+    <t>海能达通讯集团有限公司是全球领先的专业移动无线电通讯解决方案提供商，专注于在全球向客户提供高价值定制化解决方案。海能达1993年成立于中国深圳，现已发展壮大成专业移动无线电关键参与者。</t>
+  </si>
+  <si>
+    <t>电池连接 输入/输出线缆 摄像机连接 SIM/SD 卡槽 底视图连接器</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海能達通訊集團有限公司</t>
+  </si>
+  <si>
+    <t>海能達通訊集團有限公司是全球領先的專業移動無線電通訊解決方案提供商，專註於在全球向客戶提供高價值定制化解決方案。海能達1993年成立於中國深圳，現已發展壯大成專業移動無線電關鍵參與者。</t>
+  </si>
+  <si>
+    <t>電池連接 輸入/輸出線纜 攝像機連接 SIM/SD 卡槽 底視圖連接器</t>
+  </si>
+  <si>
+    <t>通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hytera Communications Corporation Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hytera Communications Corporation Limited , a world's leading solution provider of Professional Mobile Radio communications, is dedicated to bringing most valuable and customized solutions to clients across the world. Founded in 1993 in Shenzhen, China, Hytera has grown to be a key player in PMR (Professional Mobile Radio)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery Connection I/O Cable Camera Connection SIM/SD Card Sockets Backplane connector</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>UAV</t>
+  </si>
+  <si>
+    <t>DJI Technology</t>
+  </si>
+  <si>
+    <t>DJI is a Chinese technology company founded in 2006 by Frank Wang and headquartered in Shenzhen, Guangdong. It manufactures commercial and recreational unmanned aerial vehicles (UAV) for aerial photography and videography</t>
+  </si>
+  <si>
+    <t>Battery Connection Remote Control I/O Cable Drone Signal </t>
+  </si>
+  <si>
+    <t>Battery Connection Remote Control I/O Cable Drone Signal </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dji.com</t>
+  </si>
+  <si>
+    <t>大疆创新科技 </t>
+  </si>
+  <si>
+    <t>大疆是由Frank Wang 于2006年创立的中国科技公司,总部设在广东深圳。公司生产商用和娱乐无人机进行空中拍摄和摄像。</t>
+  </si>
+  <si>
+    <t>电池连接 远程遥控 输入/输出线缆 无人机信号 </t>
+  </si>
+  <si>
+    <t>无人机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無人機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆創新科技</t>
+  </si>
+  <si>
+    <t>大疆是由Frank Wang 於2006年創立的中國科技公司,總部設在廣東深圳。公司生產商用和娛樂無人機進行空中拍攝和攝像。</t>
+  </si>
+  <si>
+    <t>http://www.dji.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>億航</t>
+  </si>
+  <si>
+    <t>http://www.ehang.com/index.html</t>
+  </si>
+  <si>
+    <t>http://www.ehang.com/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>電池連接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遠程遙控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輸入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輸出線纜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>無人機信號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電池連接 遠程遙控 輸入/輸出線纜 無人機信號 </t>
+  </si>
+  <si>
+    <t>億航集團是專門從事智能飛行器研發、制造和銷售的科技創新公司。2016年1月，億航科技開發出Ehang184，一款安全、智能和生態友好型自主飛行器，提供中短程通訊和運輸解決方案。</t>
+  </si>
+  <si>
+    <t>亿航</t>
+  </si>
+  <si>
+    <t>亿航集团是专门从事智能飞行器研发、制造和销售的科技创新公司。2016年1月，亿航科技开发出Ehang184，一款安全、智能和生态友好型自主飞行器，提供中短程通讯和运输解决方案。</t>
+  </si>
+  <si>
+    <t>EHANG</t>
+  </si>
+  <si>
+    <t>EHANG, Inc. is a technological innovation company specializing in R&amp;D, manufacturing and sales of intelligent aerial vehicles. In January 2016, EHANG launched EHang 184, a safe, smart and eco-friendly autonomous aerial vehicle to provide short-to-medium distance communication and transportation solution.</t>
+  </si>
+  <si>
+    <t>http://www.xaircraft.cn/en</t>
+  </si>
+  <si>
+    <t>Uav Body Remote Control I/O Cable Drone Signal </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XAIRCRAFT is one of the world’s leading companies for UAV (Unmanned Aerial Vehicle) and Flight Control System design, development and manufacturing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XAIRCRAFT Technology</t>
+  </si>
+  <si>
+    <t>极飞科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極飛科技 </t>
+  </si>
+  <si>
+    <r>
+      <t>无人机机身遥控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电缆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无人机信号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>無人機機身遙控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>電纜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>無人機訊號</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>航空器是世界領先的無人機（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>UAV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和飛行控制系統設計、開發和製造的公司之一。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>航空器是世界领先的无人机（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>UAV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和飞行控制系统设计、开发和制造的公司之一。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道通智能科技</t>
+  </si>
+  <si>
+    <t>道通智能科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道通公司是汽车零件市场全球领先的专业诊测工具、设备和配件制造商。2014年公司研发无人机。</t>
+  </si>
+  <si>
+    <t>http://www.auteltech.cn</t>
+  </si>
+  <si>
+    <r>
+      <t>電池連接遠程遙控輸入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輸出線纜無人機訊號</t>
+    </r>
+  </si>
+  <si>
+    <t>道通公司是汽車零件市場全球領先的專業診測工具、設備和配件制造商。2014年公司研發無人機。</t>
+  </si>
+  <si>
+    <t>Autel Intelligent Technology</t>
+  </si>
+  <si>
+    <t>Autel is one of the world's leading manufacturers and suppliers of professional diagnostic tools, equipments and accessories in the automotive aftermarket. We research and development UAV in 2014.</t>
+  </si>
+  <si>
+    <t>Product Designed: </t>
+  </si>
+  <si>
+    <t>Shenzhen Feima Robotics Co. Ltd.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenzhen Feima robot technology co., LTD., founded in 2015 by IT, unmanned aircraft executives and senior experts in Shenzhen Guangdong. It is committed to civil super-mini unmanned aerial vehicle (uav) system research and development.</t>
+  </si>
+  <si>
+    <t>http://www.feimarobotics.com</t>
+  </si>
+  <si>
+    <t>深圳飛馬機器人科技有限公司由IT、無人飛行器總監和高級專家於2015年成立於廣東深圳。公司專註於民用超小型無人飛行器系統研發。</t>
+  </si>
+  <si>
+    <t>深圳飛馬機器人有限公司</t>
+  </si>
+  <si>
+    <t>深圳飞马机器人有限公司</t>
+  </si>
+  <si>
+    <t>深圳飞马机器人科技有限公司由IT、无人飞行器总监和高级专家于2015年成立于广东深圳。公司专注于民用超小型无人飞行器系统研发。</t>
+  </si>
+  <si>
+    <t>解决方案:</t>
+  </si>
+  <si>
+    <t>安全与监控</t>
+  </si>
+  <si>
+    <t>海康威视数码技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视数码技术有限公司是全球最大的视频监控产品和解决方案供应商。海康威视集团成立于2001年，产品包括混合数码录影机、网络录影机、独立数码录影机、数码视频服务器、压缩卡、高清IP摄像机以及高速球型摄影机。</t>
+  </si>
+  <si>
+    <t>解决方案: </t>
+  </si>
+  <si>
+    <t>模拟摄像机 数码摄像机 高清摄像机 网络摄像机 视频和存储系统 </t>
+  </si>
+  <si>
+    <t>http://www.hikvision.com</t>
+  </si>
+  <si>
+    <t>Security &amp; Surveillance</t>
+  </si>
+  <si>
+    <t>海康威視數碼技術</t>
+  </si>
+  <si>
+    <t>海康威視數碼技術有限公司是全球最大的視頻監控產品和解決方案供應商。海康威視集團成立於2001年，產品包括混合數碼錄影機、網絡錄影機、獨立數碼錄影機、數碼視頻服務器、壓縮卡、高清IP攝像機以及高速球型攝影機。</t>
+  </si>
+  <si>
+    <t>解決方案:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模擬攝像機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>數碼攝像機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高清攝像機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>網絡攝像機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>視頻和存儲系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全與監控</t>
+  </si>
+  <si>
+    <t>Hikvision Digital Technology</t>
+  </si>
+  <si>
+    <t>Hikvision Digital Technology Co., Ltd. is the world largest supplier of video surveillance products and solutions. Established in 2001, Hikvision’s product offerings include hybrid DVRs, NVRs, standalone DVRs, digital video servers, compression cards, high-definition IP cameras and speed domes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera Digital Camera HD Camera Network Camera Video &amp; Storage System </t>
+  </si>
+  <si>
+    <t>BYD Auto Co. Ltd.</t>
+  </si>
+  <si>
+    <t>BYD Co Ltd is a Chinese manufacturer of automobiles and rechargeable batteries with its corporate headquarters in Shenzhen.</t>
+  </si>
+  <si>
+    <t>BMS Power Cable </t>
+  </si>
+  <si>
+    <t>http://www.byd.com</t>
+  </si>
+  <si>
+    <t>http://www.byd.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>汽車</t>
+  </si>
+  <si>
+    <t>比亞迪汽車有限公司</t>
+  </si>
+  <si>
+    <t>比亞迪汽車有限公司是汽車和可充電電池的中資制造商，總部設於深圳。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>電池管理系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>電源線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪汽车有限公司</t>
+  </si>
+  <si>
+    <t>比亚迪汽车有限公司是汽车和可充电电池的中资制造商，总部设于深圳。</t>
+  </si>
+  <si>
+    <t>电池管理系统 电源线 </t>
+  </si>
+  <si>
+    <t>汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +948,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -146,62 +1008,350 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="13009524" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>8815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5019675"/>
+          <a:ext cx="13009524" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -327,7 +1477,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -336,7 +1486,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -345,7 +1495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -419,7 +1569,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -427,7 +1577,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -446,7 +1596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -476,7 +1626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -502,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -528,7 +1678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -554,7 +1704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -580,7 +1730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +1756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,7 +1782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +1808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +1834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,9 +1847,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -714,7 +1870,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -722,7 +1878,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -741,7 +1897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,7 +1923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +1949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +1975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,7 +2001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +2027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +2053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +2079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +2105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +2131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,9 +2144,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1004,7 +2166,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1023,7 +2185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +2215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +2241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +2267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +2293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +2319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +2345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +2371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +2397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +2423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,143 +2436,247 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.35156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s" s="3">
+      <c r="B2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F2" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1418,132 +2684,484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.35156" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.85156" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="5" customWidth="1"/>
+    <col min="3" max="6" width="18.140625" style="5" customWidth="1"/>
+    <col min="7" max="256" width="16.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:256" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+    </row>
+    <row r="3" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16"/>
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
+      <c r="CU9" s="16"/>
+      <c r="CV9" s="16"/>
+      <c r="CW9" s="16"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
+      <c r="DA9" s="16"/>
+      <c r="DB9" s="16"/>
+      <c r="DC9" s="16"/>
+      <c r="DD9" s="16"/>
+      <c r="DE9" s="16"/>
+      <c r="DF9" s="16"/>
+      <c r="DG9" s="16"/>
+      <c r="DH9" s="16"/>
+      <c r="DI9" s="16"/>
+      <c r="DJ9" s="16"/>
+      <c r="DK9" s="16"/>
+      <c r="DL9" s="16"/>
+      <c r="DM9" s="16"/>
+      <c r="DN9" s="16"/>
+      <c r="DO9" s="16"/>
+      <c r="DP9" s="16"/>
+      <c r="DQ9" s="16"/>
+      <c r="DR9" s="16"/>
+      <c r="DS9" s="16"/>
+      <c r="DT9" s="16"/>
+      <c r="DU9" s="16"/>
+      <c r="DV9" s="16"/>
+      <c r="DW9" s="16"/>
+      <c r="DX9" s="16"/>
+      <c r="DY9" s="16"/>
+      <c r="DZ9" s="16"/>
+      <c r="EA9" s="16"/>
+      <c r="EB9" s="16"/>
+      <c r="EC9" s="16"/>
+      <c r="ED9" s="16"/>
+      <c r="EE9" s="16"/>
+      <c r="EF9" s="16"/>
+      <c r="EG9" s="16"/>
+      <c r="EH9" s="16"/>
+      <c r="EI9" s="16"/>
+      <c r="EJ9" s="16"/>
+      <c r="EK9" s="16"/>
+      <c r="EL9" s="16"/>
+      <c r="EM9" s="16"/>
+      <c r="EN9" s="16"/>
+      <c r="EO9" s="16"/>
+      <c r="EP9" s="16"/>
+      <c r="EQ9" s="16"/>
+      <c r="ER9" s="16"/>
+      <c r="ES9" s="16"/>
+      <c r="ET9" s="16"/>
+      <c r="EU9" s="16"/>
+      <c r="EV9" s="16"/>
+      <c r="EW9" s="16"/>
+      <c r="EX9" s="16"/>
+      <c r="EY9" s="16"/>
+      <c r="EZ9" s="16"/>
+      <c r="FA9" s="16"/>
+      <c r="FB9" s="16"/>
+      <c r="FC9" s="16"/>
+      <c r="FD9" s="16"/>
+      <c r="FE9" s="16"/>
+      <c r="FF9" s="16"/>
+      <c r="FG9" s="16"/>
+      <c r="FH9" s="16"/>
+      <c r="FI9" s="16"/>
+      <c r="FJ9" s="16"/>
+      <c r="FK9" s="16"/>
+      <c r="FL9" s="16"/>
+      <c r="FM9" s="16"/>
+      <c r="FN9" s="16"/>
+      <c r="FO9" s="16"/>
+      <c r="FP9" s="16"/>
+      <c r="FQ9" s="16"/>
+      <c r="FR9" s="16"/>
+      <c r="FS9" s="16"/>
+      <c r="FT9" s="16"/>
+      <c r="FU9" s="16"/>
+      <c r="FV9" s="16"/>
+      <c r="FW9" s="16"/>
+      <c r="FX9" s="16"/>
+      <c r="FY9" s="16"/>
+      <c r="FZ9" s="16"/>
+      <c r="GA9" s="16"/>
+      <c r="GB9" s="16"/>
+      <c r="GC9" s="16"/>
+      <c r="GD9" s="16"/>
+      <c r="GE9" s="16"/>
+      <c r="GF9" s="16"/>
+      <c r="GG9" s="16"/>
+      <c r="GH9" s="16"/>
+      <c r="GI9" s="16"/>
+      <c r="GJ9" s="16"/>
+      <c r="GK9" s="16"/>
+      <c r="GL9" s="16"/>
+      <c r="GM9" s="16"/>
+      <c r="GN9" s="16"/>
+      <c r="GO9" s="16"/>
+      <c r="GP9" s="16"/>
+      <c r="GQ9" s="16"/>
+      <c r="GR9" s="16"/>
+      <c r="GS9" s="16"/>
+      <c r="GT9" s="16"/>
+      <c r="GU9" s="16"/>
+      <c r="GV9" s="16"/>
+      <c r="GW9" s="16"/>
+      <c r="GX9" s="16"/>
+      <c r="GY9" s="16"/>
+      <c r="GZ9" s="16"/>
+      <c r="HA9" s="16"/>
+      <c r="HB9" s="16"/>
+      <c r="HC9" s="16"/>
+      <c r="HD9" s="16"/>
+      <c r="HE9" s="16"/>
+      <c r="HF9" s="16"/>
+      <c r="HG9" s="16"/>
+      <c r="HH9" s="16"/>
+      <c r="HI9" s="16"/>
+      <c r="HJ9" s="16"/>
+      <c r="HK9" s="16"/>
+      <c r="HL9" s="16"/>
+      <c r="HM9" s="16"/>
+      <c r="HN9" s="16"/>
+      <c r="HO9" s="16"/>
+      <c r="HP9" s="16"/>
+      <c r="HQ9" s="16"/>
+      <c r="HR9" s="16"/>
+      <c r="HS9" s="16"/>
+      <c r="HT9" s="16"/>
+      <c r="HU9" s="16"/>
+      <c r="HV9" s="16"/>
+      <c r="HW9" s="16"/>
+      <c r="HX9" s="16"/>
+      <c r="HY9" s="16"/>
+      <c r="HZ9" s="16"/>
+      <c r="IA9" s="16"/>
+      <c r="IB9" s="16"/>
+      <c r="IC9" s="16"/>
+      <c r="ID9" s="16"/>
+      <c r="IE9" s="16"/>
+      <c r="IF9" s="16"/>
+      <c r="IG9" s="16"/>
+      <c r="IH9" s="16"/>
+      <c r="II9" s="16"/>
+      <c r="IJ9" s="16"/>
+      <c r="IK9" s="16"/>
+      <c r="IL9" s="16"/>
+      <c r="IM9" s="16"/>
+      <c r="IN9" s="16"/>
+      <c r="IO9" s="16"/>
+      <c r="IP9" s="16"/>
+      <c r="IQ9" s="16"/>
+      <c r="IR9" s="16"/>
+      <c r="IS9" s="16"/>
+      <c r="IT9" s="16"/>
+      <c r="IU9" s="16"/>
+      <c r="IV9" s="16"/>
+    </row>
+    <row r="10" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2" display="javascript:if(confirm('http://www.hytera.com/  \n\nThis file was not retrieved by Teleport Pro, because it is addressed on a domain or path outside the boundaries set for its Starting Address.  \n\nDo you want to open it from the server?'))window.location='http://www.hytera.com/'"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1551,134 +3169,346 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.35156" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="6" customWidth="1"/>
-    <col min="5" max="5" width="5.85156" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13" style="6" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="256" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="33" style="16" customWidth="1"/>
+    <col min="3" max="6" width="20.85546875" style="16" customWidth="1"/>
+    <col min="7" max="256" width="16.28515625" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2" display="javascript:if(confirm('http://www.hytera.com/  \n\nThis file was not retrieved by Teleport Pro, because it is addressed on a domain or path outside the boundaries set for its Starting Address.  \n\nDo you want to open it from the server?'))window.location='http://www.hytera.com/'"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/api/data/原始设计制造商及项目早期介入.xlsx
+++ b/src/api/data/原始设计制造商及项目早期介入.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId1"/>
-    <sheet name="繁体" sheetId="2" r:id="rId2"/>
-    <sheet name="英文 - 表格 1" sheetId="3" r:id="rId3"/>
-    <sheet name="英文 - 表格 1-1" sheetId="4" r:id="rId4"/>
-    <sheet name="用于此页面" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="中文" sheetId="1" r:id="rId2"/>
+    <sheet name="繁体" sheetId="2" r:id="rId3"/>
+    <sheet name="英文 - 表格 1" sheetId="3" r:id="rId4"/>
+    <sheet name="英文 - 表格 1-1" sheetId="4" r:id="rId5"/>
+    <sheet name="用于此页面" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>title</t>
   </si>
@@ -885,14 +881,18 @@
   </si>
   <si>
     <t>汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    設計階段的早期項目參與，應在理想情况下開始介入產品的早期設計階段。鴻昇集團的專業的產品經理和設計銷售工程師團隊，能夠為客戶提供全方位的設計/現場支援服務。我們的目標是以提供有效的解決方案為導向，為我們的客戶提供一站式專業服務，而不僅僅是銷售一個零部件。我們的產品經理和設計銷售工程師團隊努力將收集和聽取客戶的需求，并為客戶提供最佳、最優化和成本效益的解決方案。我們為客戶提供了以下成功設計支持案例。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1104,7 +1104,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1181,6 +1181,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1292,7 +1295,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1330,7 +1333,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2454,23 +2457,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="99" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="106.5" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="23.5703125" style="1" customWidth="1"/>
     <col min="7" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2490,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="81.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2510,7 +2538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
@@ -2530,7 +2558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="45.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -2550,7 +2578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
@@ -2570,7 +2598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>61</v>
       </c>
@@ -2590,7 +2618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="59.25" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>68</v>
       </c>
@@ -2610,7 +2638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -2630,7 +2658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>85</v>
       </c>
@@ -2650,7 +2678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>109</v>
       </c>
@@ -2683,8 +2711,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2694,7 +2722,7 @@
       <selection activeCell="A3" sqref="A3:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="5" customWidth="1"/>
@@ -2702,7 +2730,7 @@
     <col min="7" max="256" width="16.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2722,7 +2750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="79.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2742,7 +2770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" ht="50.1" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -2762,7 +2790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="50.1" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2782,7 +2810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="50.1" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -2802,7 +2830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="50.1" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>62</v>
       </c>
@@ -2822,7 +2850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="50.1" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -2842,7 +2870,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="50.1" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -2862,7 +2890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="50.1" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>91</v>
       </c>
@@ -3132,7 +3160,7 @@
       <c r="IU9" s="16"/>
       <c r="IV9" s="16"/>
     </row>
-    <row r="10" spans="1:256" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="50.1" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>106</v>
       </c>
@@ -3168,8 +3196,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3177,75 +3205,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -3262,8 +3290,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3273,7 +3301,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="33" style="16" customWidth="1"/>
@@ -3281,7 +3309,7 @@
     <col min="7" max="256" width="16.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="78" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -3321,7 +3349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -3341,7 +3369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="68.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -3361,7 +3389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
@@ -3381,7 +3409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -3401,7 +3429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -3421,7 +3449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
@@ -3441,7 +3469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
@@ -3461,7 +3489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
@@ -3496,15 +3524,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/api/data/原始设计制造商及项目早期介入.xlsx
+++ b/src/api/data/原始设计制造商及项目早期介入.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE401852-46AB-458F-94BE-18C6F44F2C7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -884,15 +890,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    設計階段的早期項目參與，應在理想情况下開始介入產品的早期設計階段。鴻昇集團的專業的產品經理和設計銷售工程師團隊，能夠為客戶提供全方位的設計/現場支援服務。我們的目標是以提供有效的解決方案為導向，為我們的客戶提供一站式專業服務，而不僅僅是銷售一個零部件。我們的產品經理和設計銷售工程師團隊努力將收集和聽取客戶的需求，并為客戶提供最佳、最優化和成本效益的解決方案。我們為客戶提供了以下成功設計支持案例。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">    設計階段的早期項目參與，應在理想情况下開始介入產品的早期設計階段。鸿昇集團的專業的產品經理和設計銷售工程師團隊，能夠為客戶提供全方位的設計/現場支援服務。我們的目標是以提供有效的解決方案為導向，為我們的客戶提供一站式專業服務，而不僅僅是銷售一個零部件。我們的產品經理和設計銷售工程師團隊努力將收集和聽取客戶的需求，并為客戶提供最佳、最優化和成本效益的解決方案。我們為客戶提供了以下成功設計支持案例。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1289,7 +1294,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1327,7 +1338,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2457,19 +2474,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="106.5" customHeight="1">
+    <row r="1" spans="1:1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>113</v>
       </c>
@@ -2482,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2492,13 +2509,13 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="23.5703125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="6" width="23.54296875" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="81.75" customHeight="1">
+    <row r="2" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2538,7 +2555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+    <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
@@ -2558,7 +2575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45.75" customHeight="1">
+    <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -2578,7 +2595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
@@ -2598,7 +2615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>61</v>
       </c>
@@ -2618,7 +2635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="59.25" customHeight="1">
+    <row r="7" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>68</v>
       </c>
@@ -2638,7 +2655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -2658,7 +2675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>85</v>
       </c>
@@ -2678,7 +2695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>109</v>
       </c>
@@ -2701,7 +2718,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -2712,25 +2729,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="5" customWidth="1"/>
-    <col min="3" max="6" width="18.140625" style="5" customWidth="1"/>
-    <col min="7" max="256" width="16.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="5" customWidth="1"/>
+    <col min="3" max="6" width="18.1796875" style="5" customWidth="1"/>
+    <col min="7" max="256" width="16.26953125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="15" customHeight="1">
+    <row r="1" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="79.5" customHeight="1">
+    <row r="2" spans="1:256" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2770,7 +2787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="50.1" customHeight="1">
+    <row r="3" spans="1:256" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -2790,7 +2807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="50.1" customHeight="1">
+    <row r="4" spans="1:256" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2810,7 +2827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="50.1" customHeight="1">
+    <row r="5" spans="1:256" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:256" ht="50.1" customHeight="1">
+    <row r="6" spans="1:256" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>62</v>
       </c>
@@ -2850,7 +2867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:256" ht="50.1" customHeight="1">
+    <row r="7" spans="1:256" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -2870,7 +2887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="50.1" customHeight="1">
+    <row r="8" spans="1:256" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -2890,7 +2907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:256" ht="50.1" customHeight="1">
+    <row r="9" spans="1:256" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>91</v>
       </c>
@@ -3160,7 +3177,7 @@
       <c r="IU9" s="16"/>
       <c r="IV9" s="16"/>
     </row>
-    <row r="10" spans="1:256" ht="50.1" customHeight="1">
+    <row r="10" spans="1:256" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>106</v>
       </c>
@@ -3183,10 +3200,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2" display="javascript:if(confirm('http://www.hytera.com/  \n\nThis file was not retrieved by Teleport Pro, because it is addressed on a domain or path outside the boundaries set for its Starting Address.  \n\nDo you want to open it from the server?'))window.location='http://www.hytera.com/'"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="javascript:if(confirm('http://www.hytera.com/  \n\nThis file was not retrieved by Teleport Pro, because it is addressed on a domain or path outside the boundaries set for its Starting Address.  \n\nDo you want to open it from the server?'))window.location='http://www.hytera.com/'" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3197,7 +3214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3205,75 +3222,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="256" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -3291,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3301,15 +3318,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="33" style="16" customWidth="1"/>
-    <col min="3" max="6" width="20.85546875" style="16" customWidth="1"/>
-    <col min="7" max="256" width="16.28515625" style="16" customWidth="1"/>
+    <col min="3" max="6" width="20.81640625" style="16" customWidth="1"/>
+    <col min="7" max="256" width="16.26953125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="78" customHeight="1">
+    <row r="2" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45.75" customHeight="1">
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -3369,7 +3386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="68.25" customHeight="1">
+    <row r="4" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -3389,7 +3406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
@@ -3409,7 +3426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -3429,7 +3446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -3449,7 +3466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
@@ -3489,7 +3506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
@@ -3512,9 +3529,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2" display="javascript:if(confirm('http://www.hytera.com/  \n\nThis file was not retrieved by Teleport Pro, because it is addressed on a domain or path outside the boundaries set for its Starting Address.  \n\nDo you want to open it from the server?'))window.location='http://www.hytera.com/'"/>
-    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="javascript:if(confirm('http://www.hytera.com/  \n\nThis file was not retrieved by Teleport Pro, because it is addressed on a domain or path outside the boundaries set for its Starting Address.  \n\nDo you want to open it from the server?'))window.location='http://www.hytera.com/'" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3525,14 +3542,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
